--- a/指輪.xlsx
+++ b/指輪.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Intelligent_Information_System_Lab_research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IRSL27\Documents\GitHub\Intelligent_Information_System_Lab_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40785D60-E311-4321-B77C-9146A0E63533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2008294-1CFB-449E-8840-674EB5D62BD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{9944D6E3-9325-4AC7-B4A5-FF356A2B0329}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -43,10 +32,20 @@
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0" xr:uid="{DA86FA06-D11D-45DD-957D-2F55105A7EB3}">
       <text>
-        <t>[スレッド化されたコメント]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
 コメント:
     US6号（大体の人が大きいと感じる→そのあとにサイズ直す【永年】＆刻印【六か月以内】）</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -54,23 +53,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Tifiny</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ハーモニー Withダイヤ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>銀座三越店（前田さん）</t>
-    <rPh sb="0" eb="5">
-      <t>ギンザミツコシテン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>マエダ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -105,6 +90,113 @@
     <rPh sb="0" eb="2">
       <t>ネダン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VVS1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HARMONY W/DB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VVS2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VS1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIFFANY SETTING</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>店名</t>
+    <rPh sb="0" eb="2">
+      <t>テンメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銀座三越店</t>
+    <rPh sb="0" eb="5">
+      <t>ギンザミツコシテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丸の内店</t>
+    <rPh sb="0" eb="1">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銀座本店</t>
+    <rPh sb="0" eb="4">
+      <t>ギンザホンテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大宮そごう店</t>
+    <rPh sb="0" eb="2">
+      <t>オオミヤ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヨシムラさん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マンダさん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マエダさん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ワタナベさん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PT HARMONY W/D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PT HARMONY W/DB</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -165,11 +257,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -177,7 +272,10 @@
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -217,17 +315,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8ACD34FF-87EE-4A15-B0EF-9408C740CDF3}" name="テーブル1" displayName="テーブル1" ref="A2:F3" totalsRowShown="0">
-  <autoFilter ref="A2:F3" xr:uid="{8ACD34FF-87EE-4A15-B0EF-9408C740CDF3}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{93A30EC2-DE07-488B-AEC1-9DA7EBAE405F}" name="ハーモニー Withダイヤ"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8ACD34FF-87EE-4A15-B0EF-9408C740CDF3}" name="テーブル1" displayName="テーブル1" ref="A2:G11" totalsRowShown="0">
+  <autoFilter ref="A2:G11" xr:uid="{8ACD34FF-87EE-4A15-B0EF-9408C740CDF3}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{93A30EC2-DE07-488B-AEC1-9DA7EBAE405F}" name="店名"/>
+    <tableColumn id="7" xr3:uid="{62F4C991-F60F-4721-BE68-B2548B2892E9}" name="担当者"/>
     <tableColumn id="2" xr3:uid="{76A44837-A5F6-483B-9F6B-4C14D2448F16}" name="種類"/>
-    <tableColumn id="3" xr3:uid="{F1C97AD7-FA10-40F3-B576-2A1DC7F33A84}" name="カラット"/>
+    <tableColumn id="3" xr3:uid="{F1C97AD7-FA10-40F3-B576-2A1DC7F33A84}" name="カラット" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{8B223447-B9B1-4B7C-8D8E-29D07159AFB1}" name="カラーグレード"/>
     <tableColumn id="5" xr3:uid="{91DF98B0-411F-4922-B749-E172958F5B8E}" name="クラリティ"/>
-    <tableColumn id="6" xr3:uid="{1FD0EB43-0D22-40FF-91D0-55D076A18937}" name="値段" dataDxfId="0" dataCellStyle="通貨"/>
+    <tableColumn id="6" xr3:uid="{1FD0EB43-0D22-40FF-91D0-55D076A18937}" name="値段" dataDxfId="1" dataCellStyle="通貨"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -536,73 +635,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16008A73-66A8-413D-AF63-357D480BF795}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:W3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>717200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="G4" s="1">
+        <v>689700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <v>739200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.31</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1">
         <v>717200</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1">
+        <v>779900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <v>859100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="G9" s="1">
+        <v>892100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/指輪.xlsx
+++ b/指輪.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IRSL27\Documents\GitHub\Intelligent_Information_System_Lab_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2008294-1CFB-449E-8840-674EB5D62BD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4F8CC5-491E-43AD-8962-57FCF4EDA454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{9944D6E3-9325-4AC7-B4A5-FF356A2B0329}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
   <si>
     <t>Tifiny</t>
     <phoneticPr fontId="2"/>
@@ -97,10 +98,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>VVS1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>HARMONY W/DB</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -109,19 +106,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>VVS2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>IF</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>VS1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TIFFANY SETTING</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -139,64 +128,343 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>銀座三越店</t>
-    <rPh sb="0" eb="5">
-      <t>ギンザミツコシテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>丸の内店</t>
+    <t>銀座三越</t>
+    <rPh sb="0" eb="2">
+      <t>ギンザ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミツコシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丸の内</t>
     <rPh sb="0" eb="1">
       <t>マル</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ウチ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>銀座本店</t>
-    <rPh sb="0" eb="4">
-      <t>ギンザホンテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大宮そごう店</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銀座本</t>
+    <rPh sb="0" eb="2">
+      <t>ギンザ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大宮そごう</t>
     <rPh sb="0" eb="2">
       <t>オオミヤ</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>テン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ヨシムラさん</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マンダさん</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マエダさん</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ワタナベさん</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PT HARMONY W/D</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PT HARMONY W/DB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マエダ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヨシムラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ワタナベ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カラーグレードテーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無色</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほぼ無色</t>
+    <rPh sb="2" eb="4">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>わずかな黄色味</t>
+    <rPh sb="4" eb="7">
+      <t>キイロアジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>非常に薄い黄色</t>
+    <rPh sb="0" eb="2">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薄い黄色</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラリティ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tiffany Settingのほうが大きさは0.6~0.8以上大きく感じた</t>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>イジョウオオ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Harmony</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tiffany</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大きく見える</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なじまない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>華やか</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なじむ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大きいものを買える</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10~20万以上高い</t>
+    <rPh sb="5" eb="8">
+      <t>マンイジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>つけててわかる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目立つ</t>
+    <rPh sb="0" eb="2">
+      <t>メダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日常的</t>
+    <rPh sb="0" eb="3">
+      <t>ニチジョウテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>普段使いをしなくなる</t>
+    <rPh sb="0" eb="3">
+      <t>フダンヅカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>普段使いできそう</t>
+    <rPh sb="0" eb="3">
+      <t>フダンヅカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>安定型</t>
+    <rPh sb="0" eb="2">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>思い切り型</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CHANEL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銀座本</t>
+    <rPh sb="0" eb="2">
+      <t>ギンザ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VS2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -204,8 +472,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="@&quot;店&quot;"/>
+    <numFmt numFmtId="177" formatCode="@&quot;さん&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -257,7 +527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,15 +537,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
@@ -294,6 +567,15 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="@&quot;さん&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="@&quot;店&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -315,16 +597,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8ACD34FF-87EE-4A15-B0EF-9408C740CDF3}" name="テーブル1" displayName="テーブル1" ref="A2:G11" totalsRowShown="0">
-  <autoFilter ref="A2:G11" xr:uid="{8ACD34FF-87EE-4A15-B0EF-9408C740CDF3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8ACD34FF-87EE-4A15-B0EF-9408C740CDF3}" name="テーブル1" displayName="テーブル1" ref="A2:G14" totalsRowShown="0">
+  <autoFilter ref="A2:G14" xr:uid="{8ACD34FF-87EE-4A15-B0EF-9408C740CDF3}"/>
+  <sortState ref="A3:G13">
+    <sortCondition ref="C3:C14"/>
+    <sortCondition ref="D3:D14"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{93A30EC2-DE07-488B-AEC1-9DA7EBAE405F}" name="店名"/>
-    <tableColumn id="7" xr3:uid="{62F4C991-F60F-4721-BE68-B2548B2892E9}" name="担当者"/>
+    <tableColumn id="1" xr3:uid="{93A30EC2-DE07-488B-AEC1-9DA7EBAE405F}" name="店名" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{62F4C991-F60F-4721-BE68-B2548B2892E9}" name="担当者" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{76A44837-A5F6-483B-9F6B-4C14D2448F16}" name="種類"/>
-    <tableColumn id="3" xr3:uid="{F1C97AD7-FA10-40F3-B576-2A1DC7F33A84}" name="カラット" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F1C97AD7-FA10-40F3-B576-2A1DC7F33A84}" name="カラット" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{8B223447-B9B1-4B7C-8D8E-29D07159AFB1}" name="カラーグレード"/>
     <tableColumn id="5" xr3:uid="{91DF98B0-411F-4922-B749-E172958F5B8E}" name="クラリティ"/>
-    <tableColumn id="6" xr3:uid="{1FD0EB43-0D22-40FF-91D0-55D076A18937}" name="値段" dataDxfId="1" dataCellStyle="通貨"/>
+    <tableColumn id="6" xr3:uid="{1FD0EB43-0D22-40FF-91D0-55D076A18937}" name="値段" dataDxfId="0" dataCellStyle="通貨"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -635,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16008A73-66A8-413D-AF63-357D480BF795}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -650,19 +936,27 @@
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -679,173 +973,318 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1">
-        <v>717200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+        <v>780000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>797500</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.41</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1">
-        <v>689700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="1">
+        <v>689700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1">
+        <v>960000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>869000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1">
+        <v>911100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="1">
         <v>739200</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>717200</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1">
+        <v>717200</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1">
-        <v>717200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>779900</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1">
-        <v>779900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.46</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1">
         <v>859100</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="G9" s="1">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="G14" s="1">
         <v>892100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="G11" s="1"/>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -856,4 +1295,281 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BB6D94-6F6A-4A75-A9E8-D43AE5173BC4}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/指輪.xlsx
+++ b/指輪.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IRSL27\Documents\GitHub\Intelligent_Information_System_Lab_research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.213.210\irsl_share\21 個人用研究データフォルダ\takaya\Github\Intelligent_Information_System_Lab_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4F8CC5-491E-43AD-8962-57FCF4EDA454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39755AD1-63DF-449E-AA95-6E0E8BC74390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{9944D6E3-9325-4AC7-B4A5-FF356A2B0329}"/>
+    <workbookView xWindow="3315" yWindow="4005" windowWidth="21600" windowHeight="11835" xr2:uid="{9944D6E3-9325-4AC7-B4A5-FF356A2B0329}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
   <si>
     <t>Tifiny</t>
     <phoneticPr fontId="2"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>VS1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
@@ -158,22 +154,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>大宮そごう</t>
-    <rPh sb="0" eb="2">
-      <t>オオミヤ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>マエダ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ヨシムラ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ワタナベ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -313,131 +298,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Tiffany Settingのほうが大きさは0.6~0.8以上大きく感じた</t>
-    <rPh sb="19" eb="20">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>イジョウオオ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Harmony</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Tiffany</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大きく見える</t>
-    <rPh sb="0" eb="1">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>なじまない</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>華やか</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>なじむ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大きいものを買える</t>
-    <rPh sb="0" eb="1">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10~20万以上高い</t>
-    <rPh sb="5" eb="8">
-      <t>マンイジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>つけててわかる</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>目立つ</t>
-    <rPh sb="0" eb="2">
-      <t>メダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日常的</t>
-    <rPh sb="0" eb="3">
-      <t>ニチジョウテキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>普段使いをしなくなる</t>
-    <rPh sb="0" eb="3">
-      <t>フダンヅカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>普段使いできそう</t>
-    <rPh sb="0" eb="3">
-      <t>フダンヅカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>安定型</t>
-    <rPh sb="0" eb="2">
-      <t>アンテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>思い切り型</t>
-    <rPh sb="0" eb="1">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CHANEL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>銀座本</t>
     <rPh sb="0" eb="2">
       <t>ギンザ</t>
@@ -464,7 +324,105 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>VS2</t>
+    <t>カジマさん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HARMONY W/DB</t>
+  </si>
+  <si>
+    <t>TiffanySetting W/DB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VVS2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tiffany Settingのほうが大きさは0.06~0.08以上大きく感じた</t>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>イジョウオオ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VVS1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VVS1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;カラーグレードテーブル＞</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;クラリティテーブル&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜指輪テーブル＞</t>
+    <rPh sb="1" eb="3">
+      <t>ユビワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>種類D</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カラーグレードD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラリティD</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -510,11 +468,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -527,7 +494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,12 +510,24 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -597,20 +576,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8ACD34FF-87EE-4A15-B0EF-9408C740CDF3}" name="テーブル1" displayName="テーブル1" ref="A2:G14" totalsRowShown="0">
-  <autoFilter ref="A2:G14" xr:uid="{8ACD34FF-87EE-4A15-B0EF-9408C740CDF3}"/>
-  <sortState ref="A3:G13">
-    <sortCondition ref="C3:C14"/>
-    <sortCondition ref="D3:D14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8ACD34FF-87EE-4A15-B0EF-9408C740CDF3}" name="テーブル1" displayName="テーブル1" ref="A2:J25" totalsRowShown="0">
+  <autoFilter ref="A2:J25" xr:uid="{8ACD34FF-87EE-4A15-B0EF-9408C740CDF3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J25">
+    <sortCondition descending="1" ref="I2:I25"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{93A30EC2-DE07-488B-AEC1-9DA7EBAE405F}" name="店名" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{62F4C991-F60F-4721-BE68-B2548B2892E9}" name="担当者" dataDxfId="2"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{93A30EC2-DE07-488B-AEC1-9DA7EBAE405F}" name="店名" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{62F4C991-F60F-4721-BE68-B2548B2892E9}" name="担当者" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{76A44837-A5F6-483B-9F6B-4C14D2448F16}" name="種類"/>
-    <tableColumn id="3" xr3:uid="{F1C97AD7-FA10-40F3-B576-2A1DC7F33A84}" name="カラット" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{8B223447-B9B1-4B7C-8D8E-29D07159AFB1}" name="カラーグレード"/>
     <tableColumn id="5" xr3:uid="{91DF98B0-411F-4922-B749-E172958F5B8E}" name="クラリティ"/>
-    <tableColumn id="6" xr3:uid="{1FD0EB43-0D22-40FF-91D0-55D076A18937}" name="値段" dataDxfId="0" dataCellStyle="通貨"/>
+    <tableColumn id="12" xr3:uid="{AB6649C6-5812-44DF-ADDE-F8A83A6584FD}" name="種類D" dataDxfId="2">
+      <calculatedColumnFormula>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{4A938060-9574-434F-ACE6-40E38B0A2BDC}" name="カラーグレードD" dataDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{3CF2A210-AC9D-4A47-9CE7-789FD5122CD2}" name="クラリティD" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{F1C97AD7-FA10-40F3-B576-2A1DC7F33A84}" name="カラット" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{1FD0EB43-0D22-40FF-91D0-55D076A18937}" name="値段" dataDxfId="3" dataCellStyle="通貨"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -921,375 +908,964 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16008A73-66A8-413D-AF63-357D480BF795}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="J3" s="1">
+        <v>950400</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="J4" s="1">
+        <v>739200</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1">
-        <v>780000</v>
-      </c>
-      <c r="J3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1">
-        <v>797500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="J5" s="1">
+        <v>859100</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="J6" s="1">
+        <v>911100</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="J7" s="1">
+        <v>852500</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="J8" s="1">
+        <v>960000</v>
+      </c>
+      <c r="L8" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1">
-        <v>689700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="M8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I9" s="2">
         <v>0.42</v>
       </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="1">
-        <v>960000</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="J9" s="1">
         <v>869000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="1">
-        <v>911100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="1">
-        <v>739200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.31</v>
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1">
-        <v>717200</v>
-      </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="J10" s="1">
+        <v>828300</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="J11" s="1">
+        <v>689700</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>797500</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1">
-        <v>717200</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1">
-        <v>779900</v>
-      </c>
-      <c r="J12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2">
-        <v>0.46</v>
+      <c r="D13" t="s">
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1">
-        <v>859100</v>
-      </c>
-      <c r="J13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>779900</v>
+      </c>
+      <c r="L13" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="J14" s="1">
+        <v>916000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="J15" s="1">
+        <v>852600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="J16" s="1">
+        <v>779900</v>
+      </c>
+      <c r="L16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="J17" s="1">
+        <v>770000</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>4</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="J18" s="1">
+        <v>837100</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="J19" s="1">
+        <v>770000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="J20" s="1">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>4</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="J21" s="1">
+        <v>728200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="J22" s="1">
+        <v>781000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="G14" s="1">
-        <v>892100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" t="s">
-        <v>50</v>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="J23" s="1">
+        <v>717200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="J24" s="1">
+        <v>717200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25">
+        <f>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</f>
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <f>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="J25" s="1">
+        <v>735900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -1305,264 +1881,264 @@
       <selection activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>23</v>

--- a/指輪.xlsx
+++ b/指輪.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.213.210\irsl_share\21 個人用研究データフォルダ\takaya\Github\Intelligent_Information_System_Lab_research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IRSL27\Documents\GitHub\Intelligent_Information_System_Lab_research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39755AD1-63DF-449E-AA95-6E0E8BC74390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD572E7-CF75-49A0-A022-62589A29A84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="4005" windowWidth="21600" windowHeight="11835" xr2:uid="{9944D6E3-9325-4AC7-B4A5-FF356A2B0329}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9944D6E3-9325-4AC7-B4A5-FF356A2B0329}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -510,7 +521,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,15 +530,6 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -549,6 +551,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="177" formatCode="@&quot;さん&quot;"/>
@@ -587,17 +598,17 @@
     <tableColumn id="2" xr3:uid="{76A44837-A5F6-483B-9F6B-4C14D2448F16}" name="種類"/>
     <tableColumn id="4" xr3:uid="{8B223447-B9B1-4B7C-8D8E-29D07159AFB1}" name="カラーグレード"/>
     <tableColumn id="5" xr3:uid="{91DF98B0-411F-4922-B749-E172958F5B8E}" name="クラリティ"/>
-    <tableColumn id="12" xr3:uid="{AB6649C6-5812-44DF-ADDE-F8A83A6584FD}" name="種類D" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{AB6649C6-5812-44DF-ADDE-F8A83A6584FD}" name="種類D" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(テーブル1[[#This Row],[種類]],$L$17:$M$18,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{4A938060-9574-434F-ACE6-40E38B0A2BDC}" name="カラーグレードD" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{4A938060-9574-434F-ACE6-40E38B0A2BDC}" name="カラーグレードD" dataDxfId="3">
       <calculatedColumnFormula>VLOOKUP(テーブル1[[#This Row],[カラーグレード]],$L$2:$M$8,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3CF2A210-AC9D-4A47-9CE7-789FD5122CD2}" name="クラリティD" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{3CF2A210-AC9D-4A47-9CE7-789FD5122CD2}" name="クラリティD" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(テーブル1[[#This Row],[クラリティ]],$L$11:$M$14,2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F1C97AD7-FA10-40F3-B576-2A1DC7F33A84}" name="カラット" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{1FD0EB43-0D22-40FF-91D0-55D076A18937}" name="値段" dataDxfId="3" dataCellStyle="通貨"/>
+    <tableColumn id="3" xr3:uid="{F1C97AD7-FA10-40F3-B576-2A1DC7F33A84}" name="カラット" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1FD0EB43-0D22-40FF-91D0-55D076A18937}" name="値段" dataDxfId="0" dataCellStyle="通貨"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -910,25 +921,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16008A73-66A8-413D-AF63-357D480BF795}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,7 +947,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -974,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1015,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1056,7 +1067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1097,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -1138,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1179,7 +1190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -1220,7 +1231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
@@ -1255,7 +1266,7 @@
         <v>869000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1293,7 +1304,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1334,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -1375,7 +1386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1416,7 +1427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1457,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1492,7 +1503,7 @@
         <v>852600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1530,7 +1541,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1571,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1612,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1647,7 +1658,7 @@
         <v>770000</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -1682,7 +1693,7 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1717,7 +1728,7 @@
         <v>728200</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1752,7 +1763,7 @@
         <v>781000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1787,7 +1798,7 @@
         <v>717200</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -1822,7 +1833,7 @@
         <v>717200</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1857,7 +1868,7 @@
         <v>735900</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>57</v>
       </c>
@@ -1881,9 +1892,9 @@
       <selection activeCell="C2" sqref="C2:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1891,7 +1902,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1902,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1913,7 +1924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1924,7 +1935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1935,7 +1946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1946,7 +1957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1957,7 +1968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1968,7 +1979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1979,7 +1990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1990,7 +2001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2001,7 +2012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2012,7 +2023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2023,7 +2034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2034,7 +2045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2045,7 +2056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2056,7 +2067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2067,7 +2078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2078,7 +2089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2089,7 +2100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2100,7 +2111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2111,7 +2122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2122,7 +2133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2133,7 +2144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>45</v>
       </c>
